--- a/biology/Botanique/Jean-Marc_Roulot/Jean-Marc_Roulot.xlsx
+++ b/biology/Botanique/Jean-Marc_Roulot/Jean-Marc_Roulot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Marc Roulot est un acteur français, né à Beaune (Côte-d'Or) le 15 décembre 1955[1]. Il est également vigneron à Meursault, à la tête du domaine familial depuis 1989 où il produit des vins, des liqueurs et des alcools.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Marc Roulot est un acteur français, né à Beaune (Côte-d'Or) le 15 décembre 1955. Il est également vigneron à Meursault, à la tête du domaine familial depuis 1989 où il produit des vins, des liqueurs et des alcools.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cours de Blanche Salant au Centre Américain de Paris
 Conservatoire national supérieur d'art dramatique de Paris, élève dans les classes de Michel Bouquet, Pierre Debauche et Jacques Lassalle
@@ -543,7 +557,9 @@
           <t>Théâtre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Tartuffe / Jacques Lassalle
@@ -586,8 +602,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cinéma
-1983 : Circulez y'a rien à voir de Patrice Leconte
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1983 : Circulez y'a rien à voir de Patrice Leconte
 1984 : Le Tartuffe de Gérard Depardieu
 1988 : Un homme amoureux de Diane Kurys
 1988 : Une affaire de femmes de Claude Chabrol
@@ -609,8 +630,43 @@
 2014 : Diplomatie de Volker Schlöndorff
 2017 : Ce qui nous lie de Cédric Klapisch
 2018 : Un peuple et son roi de Pierre Schoeller
-2023 : La Passion de Dodin Bouffant de Trần Anh Hùng
-Télévision
+2023 : La Passion de Dodin Bouffant de Trần Anh Hùng</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Marc_Roulot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Marc_Roulot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1988 : Les dossiers secrets de l'inspecteur Lavardin : L'Escargot noir de Claude Chabrol
 1989 : Les Jupons de la Révolution - épisode : Marat de Maroun Bagdadi : Abbé Filassier 
 1990 : Disparus de Saint-Agil de Jean-Louis Benoît : Monaieur Raymon 
